--- a/src/test/resources/testdata/ExelenterEmployees.xlsx
+++ b/src/test/resources/testdata/ExelenterEmployees.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilnoza\Desktop\Programming\TestNGFramework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D9AFFE-E651-48E9-BA8F-CCDACE90E4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A04BE2-3BBB-4F71-8DAF-CA6021F0F94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9012" yWindow="1764" windowWidth="13044" windowHeight="10308" xr2:uid="{9F476B80-5E5D-4A24-8BEE-AF3FDC94296B}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
+    <sheet name="NegativeLoginTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Password</t>
   </si>
@@ -93,19 +94,49 @@
     <t>jess_Shmit@2024</t>
   </si>
   <si>
-    <t>msamuels123545</t>
-  </si>
-  <si>
-    <t>sjones12545</t>
-  </si>
-  <si>
-    <t>wjohnson123545</t>
-  </si>
-  <si>
-    <t>asmith12545</t>
-  </si>
-  <si>
-    <t>jshmit123545</t>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Error Message</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>invalidPass</t>
+  </si>
+  <si>
+    <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>Exelent2022Sdet!</t>
+  </si>
+  <si>
+    <t>admi123</t>
+  </si>
+  <si>
+    <t>Password cannot be empty</t>
+  </si>
+  <si>
+    <t>Admin123</t>
+  </si>
+  <si>
+    <t>Username cannot be empty</t>
+  </si>
+  <si>
+    <t>msamuels12</t>
+  </si>
+  <si>
+    <t>sjones12</t>
+  </si>
+  <si>
+    <t>wjohnson12</t>
+  </si>
+  <si>
+    <t>asmith12</t>
+  </si>
+  <si>
+    <t>jshmit12</t>
   </si>
 </sst>
 </file>
@@ -470,7 +501,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
@@ -517,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -531,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -545,7 +576,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
@@ -559,10 +590,139 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379847ED-D444-434F-BFD8-14A6294C84A0}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/ExelenterEmployees.xlsx
+++ b/src/test/resources/testdata/ExelenterEmployees.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilnoza\Desktop\Programming\TestNGFramework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A04BE2-3BBB-4F71-8DAF-CA6021F0F94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58023A4F-D285-4E90-B606-3B0F29F240B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9012" yWindow="1764" windowWidth="13044" windowHeight="10308" xr2:uid="{9F476B80-5E5D-4A24-8BEE-AF3FDC94296B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F476B80-5E5D-4A24-8BEE-AF3FDC94296B}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
     <sheet name="NegativeLoginTest" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>Password</t>
   </si>
@@ -94,9 +95,6 @@
     <t>jess_Shmit@2024</t>
   </si>
   <si>
-    <t>AC</t>
-  </si>
-  <si>
     <t>Error Message</t>
   </si>
   <si>
@@ -124,19 +122,19 @@
     <t>Username cannot be empty</t>
   </si>
   <si>
-    <t>msamuels12</t>
-  </si>
-  <si>
-    <t>sjones12</t>
-  </si>
-  <si>
-    <t>wjohnson12</t>
-  </si>
-  <si>
-    <t>asmith12</t>
-  </si>
-  <si>
-    <t>jshmit12</t>
+    <t>msamuels9874</t>
+  </si>
+  <si>
+    <t>sjones9874</t>
+  </si>
+  <si>
+    <t>wjohnson9874</t>
+  </si>
+  <si>
+    <t>asmith9874</t>
+  </si>
+  <si>
+    <t>jshmit9874</t>
   </si>
 </sst>
 </file>
@@ -501,7 +499,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
@@ -548,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -562,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -576,7 +574,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
@@ -590,7 +588,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
@@ -604,36 +602,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379847ED-D444-434F-BFD8-14A6294C84A0}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -641,92 +636,169 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234878E0-0751-44E6-AFD2-379A5724DA71}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>